--- a/results/I3_N5_M2_T15_C100_DepCentral_s4_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1852.171664235449</v>
+        <v>1095.603585677869</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4440000057220459</v>
+        <v>0.5210001468658447</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.903712359388699</v>
+        <v>4.991675977873492</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.91349246044439</v>
+        <v>3.173377521711894</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1570.030000000406</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>262.7099999999568</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -620,31 +620,9 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -689,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -755,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -918,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>12.18397443193426</v>
       </c>
     </row>
     <row r="4">
@@ -942,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.435282324500619</v>
+        <v>7.435282324495433</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +928,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.854390220780438</v>
+        <v>5.145609779219558</v>
       </c>
     </row>
     <row r="8">
@@ -980,7 +958,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1015,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1060,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1068,13 +1046,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1082,13 +1060,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1102,79 +1080,9 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1277,7 +1185,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>103.9450000000001</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -1288,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.87500000000732</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1207,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.50500000000008</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
@@ -1310,7 +1218,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>97.73000000000008</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
@@ -1321,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>89.70500000001086</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
@@ -1332,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>188.075000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
@@ -1343,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>196.6550000000072</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -1354,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>200.4400000000049</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -1365,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>203.0950000000048</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -1376,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>195.5150000000081</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
@@ -1387,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000565</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1398,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000877</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1409,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1420,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000407</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -1431,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000762</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -1442,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>111.565000000005</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -1453,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>120.730000000008</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24">
@@ -1464,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>111.1650000000053</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1475,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>116.5300000000043</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26">
@@ -1486,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>116.9850000000074</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -1497,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>163.8400000000275</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1508,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>163.6950000000313</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29">
@@ -1519,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>161.6800000000167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
@@ -1530,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>160.4150000000366</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -1541,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>151.6050000000389</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32">
@@ -1552,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>163.8400000000377</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33">
@@ -1563,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>163.6950000000313</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -1574,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>161.6800000000264</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1585,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>160.4150000000366</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -1596,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>151.6050000000389</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -1607,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>188.075000000007</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38">
@@ -1618,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>196.6550000000072</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39">
@@ -1629,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>200.4400000000049</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40">
@@ -1640,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.0950000000048</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41">
@@ -1651,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>195.5150000000081</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1698,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>63.84000000003766</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1709,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>63.69500000003131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -1720,7 +1628,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>61.68000000002644</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1731,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>60.41500000003657</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
@@ -1742,7 +1650,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.6050000000389</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1753,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>88.07500000000704</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
@@ -1764,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>96.65500000000725</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1775,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>100.4400000000049</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -1786,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>103.0950000000048</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11">
@@ -1797,7 +1705,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>95.51500000000806</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1844,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1855,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1866,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>6.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1877,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1888,7 +1796,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1899,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1910,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>7.045</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1921,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1932,7 +1840,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>6.91</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1943,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>6.74</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1954,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1965,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.17499999999196</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -1976,7 +1884,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.854999999996676</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1987,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.214999999996657</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1998,7 +1906,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.484999999993106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -2009,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3.005</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2020,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.81</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2031,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>3.645</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2042,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>6.325</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2053,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>5.575</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2064,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2075,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2086,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2097,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2108,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2160,10 +2068,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2171,10 +2079,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2182,10 +2090,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2193,10 +2101,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2207,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2215,10 +2123,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2226,10 +2134,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2237,10 +2145,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2248,10 +2156,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2262,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2270,10 +2178,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2281,45 +2189,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="n">
         <v>1</v>
       </c>
     </row>
